--- a/biology/Médecine/Phonophobie/Phonophobie.xlsx
+++ b/biology/Médecine/Phonophobie/Phonophobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phonophobie (plus rarement audiophobie) est une crainte d'entendre ou d'écouter due à une sensation auditive insupportable produite par les sons environnants. Dans la nouvelle classification de Tyler et al., la phonophobie est classée comme une hyperacousie de peur[1]. Qu'il ne faut pas confondre avec les autres types d'hyperacousie (hyperacousie d'intensité, hyperacousie de douleur et hyperacousie de gène)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phonophobie (plus rarement audiophobie) est une crainte d'entendre ou d'écouter due à une sensation auditive insupportable produite par les sons environnants. Dans la nouvelle classification de Tyler et al., la phonophobie est classée comme une hyperacousie de peur. Qu'il ne faut pas confondre avec les autres types d'hyperacousie (hyperacousie d'intensité, hyperacousie de douleur et hyperacousie de gène).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les voies auditives non classiques fournissant une voie sous-corticale à l'amygdale peuvent être impliqués dans la phonophobie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les voies auditives non classiques fournissant une voie sous-corticale à l'amygdale peuvent être impliqués dans la phonophobie.
 </t>
         </is>
       </c>
